--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/01.BaoGiaBH/BG_NgocHoan_100125.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/01.BaoGiaBH/BG_NgocHoan_100125.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Khay sim</t>
+  </si>
+  <si>
+    <t>Báo giá ghi công nợ kinh doanh</t>
   </si>
 </sst>
 </file>
@@ -514,47 +517,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -565,51 +571,60 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,15 +634,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -645,9 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,7 +1009,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1030,247 +1033,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="45" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="14">
         <v>140000</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="14">
         <f>SUM(I11*H11)</f>
         <v>140000</v>
       </c>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="14">
         <v>140000</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="14">
         <f>SUM(I12*H12)</f>
         <v>140000</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="34">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="13">
         <f>SUM(J11:J12)</f>
         <v>280000</v>
       </c>
@@ -1291,10 +1294,12 @@
     </row>
     <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1303,119 +1308,119 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="8"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1480,6 +1485,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A13:I13"/>
@@ -1488,16 +1503,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
